--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +462,7 @@
         <v>placed</v>
       </c>
       <c r="H2" t="str">
-        <v>Processing</v>
+        <v>Delivered</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>placed</v>
       </c>
       <c r="H3" t="str">
-        <v>Processing</v>
+        <v>Delivered</v>
       </c>
     </row>
     <row r="4">
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>₹ 3434</v>
+        <v>₹ null</v>
       </c>
       <c r="E4" t="str">
-        <v>₹ 343.40</v>
+        <v>₹ 0.00</v>
       </c>
       <c r="F4" t="str">
         <v>ONLINE</v>
@@ -514,7 +514,7 @@
         <v>placed</v>
       </c>
       <c r="H4" t="str">
-        <v>Out for Delivery</v>
+        <v>Order Placed</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +540,7 @@
         <v>placed</v>
       </c>
       <c r="H5" t="str">
-        <v>Out for Delivery</v>
+        <v>Order Placed</v>
       </c>
     </row>
     <row r="6">
@@ -569,9 +569,191 @@
         <v>Order Placed</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45040.4969490625</v>
+      </c>
+      <c r="B7" t="str">
+        <v>#64461df4d48975266386965b</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <v>₹ 1029</v>
+      </c>
+      <c r="E7" t="str">
+        <v>₹ 102.90</v>
+      </c>
+      <c r="F7" t="str">
+        <v>ONLINE</v>
+      </c>
+      <c r="G7" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45040.60450206019</v>
+      </c>
+      <c r="B8" t="str">
+        <v>#64463b5075f339fd805a8052</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>₹ 16995</v>
+      </c>
+      <c r="E8" t="str">
+        <v>₹ 1699.50</v>
+      </c>
+      <c r="F8" t="str">
+        <v>ONLINE</v>
+      </c>
+      <c r="G8" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45040.70766472222</v>
+      </c>
+      <c r="B9" t="str">
+        <v>#64463bbe75f339fd805a80a0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>₹ 9695</v>
+      </c>
+      <c r="E9" t="str">
+        <v>₹ 969.50</v>
+      </c>
+      <c r="F9" t="str">
+        <v>COD</v>
+      </c>
+      <c r="G9" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45040.70766472222</v>
+      </c>
+      <c r="B10" t="str">
+        <v>#64463b5075f339fd805a8052</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <v>₹ 16995</v>
+      </c>
+      <c r="E10" t="str">
+        <v>₹ 1699.50</v>
+      </c>
+      <c r="F10" t="str">
+        <v>COD</v>
+      </c>
+      <c r="G10" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45040.72333584491</v>
+      </c>
+      <c r="B11" t="str">
+        <v>#6446420975f339fd805a82e8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>₹ 100</v>
+      </c>
+      <c r="E11" t="str">
+        <v>₹ 10.00</v>
+      </c>
+      <c r="F11" t="str">
+        <v>COD</v>
+      </c>
+      <c r="G11" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45040.72333584491</v>
+      </c>
+      <c r="B12" t="str">
+        <v>#64463bbe75f339fd805a80a0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>₹ 9695</v>
+      </c>
+      <c r="E12" t="str">
+        <v>₹ 969.50</v>
+      </c>
+      <c r="F12" t="str">
+        <v>COD</v>
+      </c>
+      <c r="G12" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45040.723589409725</v>
+      </c>
+      <c r="B13" t="str">
+        <v>#64463bbe75f339fd805a80a0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <v>₹ 19390</v>
+      </c>
+      <c r="E13" t="str">
+        <v>₹ 1939.00</v>
+      </c>
+      <c r="F13" t="str">
+        <v>COD</v>
+      </c>
+      <c r="G13" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,22 +441,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45039.31064568287</v>
+        <v>45061.96342673611</v>
       </c>
       <c r="B2" t="str">
-        <v>#64303b8e3752f46aa6a008d3</v>
+        <v>#64463bbe75f339fd805a80a0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>₹ 8895</v>
+        <v>₹ 9695</v>
       </c>
       <c r="E2" t="str">
-        <v>₹ 889.50</v>
+        <v>₹ 969.50</v>
       </c>
       <c r="F2" t="str">
-        <v>COD</v>
+        <v>ONLINE</v>
       </c>
       <c r="G2" t="str">
         <v>placed</v>
@@ -467,22 +467,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45039.31064568287</v>
+        <v>45061.96342673611</v>
       </c>
       <c r="B3" t="str">
-        <v>#64303c3b3752f46aa6a008f1</v>
+        <v>#64463b5075f339fd805a8052</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>₹ 8595</v>
+        <v>₹ 16995</v>
       </c>
       <c r="E3" t="str">
-        <v>₹ 859.50</v>
+        <v>₹ 1699.50</v>
       </c>
       <c r="F3" t="str">
-        <v>COD</v>
+        <v>ONLINE</v>
       </c>
       <c r="G3" t="str">
         <v>placed</v>
@@ -493,19 +493,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>45039.31088925926</v>
+        <v>45061.96084599537</v>
       </c>
       <c r="B4" t="str">
-        <v>#6443fe9525d0ee203f59bec3</v>
+        <v>#6446420975f339fd805a82e8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>₹ null</v>
+        <v>₹ 100</v>
       </c>
       <c r="E4" t="str">
-        <v>₹ 0.00</v>
+        <v>₹ 10.00</v>
       </c>
       <c r="F4" t="str">
         <v>ONLINE</v>
@@ -519,19 +519,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45039.31088925926</v>
+        <v>45061.96084599537</v>
       </c>
       <c r="B5" t="str">
-        <v>#64303b8e3752f46aa6a008d3</v>
+        <v>#64463bbe75f339fd805a80a0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>₹ 8895</v>
+        <v>₹ 9695</v>
       </c>
       <c r="E5" t="str">
-        <v>₹ 889.50</v>
+        <v>₹ 969.50</v>
       </c>
       <c r="F5" t="str">
         <v>ONLINE</v>
@@ -545,22 +545,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>45040.47086755787</v>
+        <v>45061.62847283565</v>
       </c>
       <c r="B6" t="str">
-        <v>#64303c3b3752f46aa6a008f1</v>
+        <v>#6446420975f339fd805a82e8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
-        <v>₹ 25785</v>
+        <v>₹ 100</v>
       </c>
       <c r="E6" t="str">
-        <v>₹ 2578.50</v>
+        <v>₹ 10.00</v>
       </c>
       <c r="F6" t="str">
-        <v>COD</v>
+        <v>ONLINE</v>
       </c>
       <c r="G6" t="str">
         <v>placed</v>
@@ -571,19 +571,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45040.4969490625</v>
+        <v>45061.62847283565</v>
       </c>
       <c r="B7" t="str">
-        <v>#64461df4d48975266386965b</v>
+        <v>#64463bbe75f339fd805a80a0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
-        <v>₹ 1029</v>
+        <v>₹ 9695</v>
       </c>
       <c r="E7" t="str">
-        <v>₹ 102.90</v>
+        <v>₹ 969.50</v>
       </c>
       <c r="F7" t="str">
         <v>ONLINE</v>
@@ -597,19 +597,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>45040.60450206019</v>
+        <v>45061.626569155094</v>
       </c>
       <c r="B8" t="str">
-        <v>#64463b5075f339fd805a8052</v>
+        <v>#6446420975f339fd805a82e8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <v>₹ 16995</v>
+        <v>₹ 100</v>
       </c>
       <c r="E8" t="str">
-        <v>₹ 1699.50</v>
+        <v>₹ 10.00</v>
       </c>
       <c r="F8" t="str">
         <v>ONLINE</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45040.70766472222</v>
+        <v>45061.626569155094</v>
       </c>
       <c r="B9" t="str">
         <v>#64463bbe75f339fd805a80a0</v>
@@ -638,7 +638,7 @@
         <v>₹ 969.50</v>
       </c>
       <c r="F9" t="str">
-        <v>COD</v>
+        <v>ONLINE</v>
       </c>
       <c r="G9" t="str">
         <v>placed</v>
@@ -649,22 +649,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>45040.70766472222</v>
+        <v>45061.61976501157</v>
       </c>
       <c r="B10" t="str">
-        <v>#64463b5075f339fd805a8052</v>
+        <v>#6446420975f339fd805a82e8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="str">
-        <v>₹ 16995</v>
+        <v>₹ 200</v>
       </c>
       <c r="E10" t="str">
-        <v>₹ 1699.50</v>
+        <v>₹ 20.00</v>
       </c>
       <c r="F10" t="str">
-        <v>COD</v>
+        <v>ONLINE</v>
       </c>
       <c r="G10" t="str">
         <v>placed</v>
@@ -675,22 +675,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45040.72333584491</v>
+        <v>45061.61780003472</v>
       </c>
       <c r="B11" t="str">
         <v>#6446420975f339fd805a82e8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="str">
-        <v>₹ 100</v>
+        <v>₹ 500</v>
       </c>
       <c r="E11" t="str">
-        <v>₹ 10.00</v>
+        <v>₹ 50.00</v>
       </c>
       <c r="F11" t="str">
-        <v>COD</v>
+        <v>ONLINE</v>
       </c>
       <c r="G11" t="str">
         <v>placed</v>
@@ -701,22 +701,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>45040.72333584491</v>
+        <v>45061.61670212963</v>
       </c>
       <c r="B12" t="str">
-        <v>#64463bbe75f339fd805a80a0</v>
+        <v>#6446420975f339fd805a82e8</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="str">
-        <v>₹ 9695</v>
+        <v>₹ 100</v>
       </c>
       <c r="E12" t="str">
-        <v>₹ 969.50</v>
+        <v>₹ 10.00</v>
       </c>
       <c r="F12" t="str">
-        <v>COD</v>
+        <v>ONLINE</v>
       </c>
       <c r="G12" t="str">
         <v>placed</v>
@@ -727,33 +727,111 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45040.723589409725</v>
+        <v>45061.6155196875</v>
       </c>
       <c r="B13" t="str">
-        <v>#64463bbe75f339fd805a80a0</v>
+        <v>#6446420975f339fd805a82e8</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D13" t="str">
-        <v>₹ 19390</v>
+        <v>₹ 1500</v>
       </c>
       <c r="E13" t="str">
-        <v>₹ 1939.00</v>
+        <v>₹ 150.00</v>
       </c>
       <c r="F13" t="str">
+        <v>ONLINE</v>
+      </c>
+      <c r="G13" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45061.61464622685</v>
+      </c>
+      <c r="B14" t="str">
+        <v>#6446420975f339fd805a82e8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <v>₹ 100</v>
+      </c>
+      <c r="E14" t="str">
+        <v>₹ 10.00</v>
+      </c>
+      <c r="F14" t="str">
         <v>COD</v>
       </c>
-      <c r="G13" t="str">
-        <v>placed</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Order Placed</v>
+      <c r="G14" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45061.61395478009</v>
+      </c>
+      <c r="B15" t="str">
+        <v>#6446420975f339fd805a82e8</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="str">
+        <v>₹ 500</v>
+      </c>
+      <c r="E15" t="str">
+        <v>₹ 50.00</v>
+      </c>
+      <c r="F15" t="str">
+        <v>ONLINE</v>
+      </c>
+      <c r="G15" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Order Placed</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45050.96473128472</v>
+      </c>
+      <c r="B16" t="str">
+        <v>#64303c3b3752f46aa6a008f1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <v>₹ 8595</v>
+      </c>
+      <c r="E16" t="str">
+        <v>₹ 859.50</v>
+      </c>
+      <c r="F16" t="str">
+        <v>ONLINE</v>
+      </c>
+      <c r="G16" t="str">
+        <v>placed</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Delivered</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H16"/>
   </ignoredErrors>
 </worksheet>
 </file>